--- a/biology/Médecine/1297_en_santé_et_médecine/1297_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1297_en_santé_et_médecine/1297_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1297_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1297_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1297 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1297_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1297_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 mai : fondation de la maison-Dieu d'Ancenis par Geoffroy V, seigneur du lieu[1].
-Charles d'Anjou, roi de Naples, fait statuer que dans son comté de Provence, « on ne pourr[a] exercer la médecine et la chirurgie qu'après avoir donné des preuves de capacité et de probité reconnues[2] ».
-Fondation de l'hospice d'Ernée, dans le comté du Maine, « pour recevoir les indigents malades de la commune[3] ».
-« Un embryon d'enseignement médical » est attesté à Avignon[4].
-Le pape Boniface VIII érige en ordre religieux la « maison de l'aumône de Saint-Antoine », qui devient « ordre hospitalier des chanoines réguliers de Saint-Antoine-en-Viennois », dont les membres sont couramment appelés « Antonins[5] ».
-1297-1300 : fondation par le pape Boniface VIII et le roi d'Aragon Jacques II, comte de Barcelone,  de l'université de Lérida[6], où la médecine est officiellement enseignée dès l'origine[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 mai : fondation de la maison-Dieu d'Ancenis par Geoffroy V, seigneur du lieu.
+Charles d'Anjou, roi de Naples, fait statuer que dans son comté de Provence, « on ne pourr[a] exercer la médecine et la chirurgie qu'après avoir donné des preuves de capacité et de probité reconnues ».
+Fondation de l'hospice d'Ernée, dans le comté du Maine, « pour recevoir les indigents malades de la commune ».
+« Un embryon d'enseignement médical » est attesté à Avignon.
+Le pape Boniface VIII érige en ordre religieux la « maison de l'aumône de Saint-Antoine », qui devient « ordre hospitalier des chanoines réguliers de Saint-Antoine-en-Viennois », dont les membres sont couramment appelés « Antonins ».
+1297-1300 : fondation par le pape Boniface VIII et le roi d'Aragon Jacques II, comte de Barcelone,  de l'université de Lérida, où la médecine est officiellement enseignée dès l'origine.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1297_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1297_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Baudet, barbier parisien[8].
-Fl. Garcie, médecin, qui figure dans une charte de donation de Jean de La Vau, seigneur de Nuaillé, à l'abbaye de la Grâce-Dieu, en Aunis[8].
-Fl. Hugues Fabri, médecin, témoin des dernières volontés de saint Louis d'Anjou, évêque de Toulouse[8].
-1297-1298 : fl. Arnaud Tisseyre, notaire et « quelque peu » médecin à Lordat, mari de la fille de Pierre Autier, hérétique albigeois[8].
-1297-1334 : fl. Raymond Balli, médecin à Genève[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Baudet, barbier parisien.
+Fl. Garcie, médecin, qui figure dans une charte de donation de Jean de La Vau, seigneur de Nuaillé, à l'abbaye de la Grâce-Dieu, en Aunis.
+Fl. Hugues Fabri, médecin, témoin des dernières volontés de saint Louis d'Anjou, évêque de Toulouse.
+1297-1298 : fl. Arnaud Tisseyre, notaire et « quelque peu » médecin à Lordat, mari de la fille de Pierre Autier, hérétique albigeois.
+1297-1334 : fl. Raymond Balli, médecin à Genève.</t>
         </is>
       </c>
     </row>
